--- a/Project 2/Documents/FunctionPlotterDocuments/SalterOutput/salted2SaltedGraph.xlsx
+++ b/Project 2/Documents/FunctionPlotterDocuments/SalterOutput/salted2SaltedGraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Documents\FunctionPlotterDocuments\SalterOutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE5EA31-062A-4D0E-A969-A29DB476EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247C2B8-978B-4A93-8F27-6EC79B10801F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{6288E2E2-CE66-4EF9-B44F-BDF76996E2A3}"/>
   </bookViews>
@@ -1952,7 +1952,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
